--- a/Controller/Controller_NOP.xlsx
+++ b/Controller/Controller_NOP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationFramework\Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27602B37-5B64-4412-82FC-CE425F882C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CB826C-2331-40D1-AD12-A827C9EEDDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B930F6A-1585-46EA-8B3E-7080AD777EC1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>TCName</t>
   </si>
@@ -56,9 +56,6 @@
     <t>TestDataSet</t>
   </si>
   <si>
-    <t>taasframework.com.qa.test.JioMart</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -69,13 +66,34 @@
   </si>
   <si>
     <t>Test_001_NopLogin</t>
+  </si>
+  <si>
+    <t>test_nop.py</t>
+  </si>
+  <si>
+    <t>Test_002_NopLogin</t>
+  </si>
+  <si>
+    <t>Test_003_NopLogin</t>
+  </si>
+  <si>
+    <t>Test_004_NopLogin</t>
+  </si>
+  <si>
+    <t>NOP  TC 2</t>
+  </si>
+  <si>
+    <t>NOP  TC 3</t>
+  </si>
+  <si>
+    <t>NOP  TC 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +126,12 @@
       <color rgb="FFA9B7C6"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -514,17 +538,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B69E542-712A-4BCE-9554-46EA5AE82FFA}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
@@ -556,34 +580,98 @@
         <v>TC_Test_001_NopLogin</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
+    </row>
+    <row r="3" spans="1:6" ht="17.25">
+      <c r="A3" s="3" t="str">
+        <f t="shared" ref="A3:A5" si="0">CONCATENATE("TC_",SUBSTITUTE(B3," ","_"))</f>
+        <v>TC_Test_002_NopLogin</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25">
+      <c r="A4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_Test_003_NopLogin</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25">
+      <c r="A5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_Test_004_NopLogin</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
     <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="FLow">
       <formula>NOT(ISERROR(SEARCH("FLow",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E5">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{4205647F-C503-410C-A3E6-412813B2B92F}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{4205647F-C503-410C-A3E6-412813B2B92F}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
